--- a/countries/Spain_all.xlsx
+++ b/countries/Spain_all.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoGro\Desktop\Repos\datasets-of-interest\a-place-for-salvador-allende\countries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF63D85-4BFF-4481-8D60-61A264B0A61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C056145-92D2-4724-A8B3-A5D096007166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{6D4F5769-6351-456D-96A7-4AF131BB0E5D}"/>
+    <workbookView xWindow="33480" yWindow="2925" windowWidth="29040" windowHeight="17520" xr2:uid="{6D4F5769-6351-456D-96A7-4AF131BB0E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$57</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,15 +38,1496 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Glo Canonoy</author>
+    <author>Canonoy, Glo</author>
+  </authors>
+  <commentList>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{4892FA4F-D17D-460E-A6E9-A35E675B1FB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Glo Canonoy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://monuments.iec.cat/fitxa.asp?id=847</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{491ABD0D-0A56-413C-B65F-1DDF2090FCC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Glo Canonoy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://monuments.iec.cat/fitxa.asp?id=1172</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q28" authorId="0" shapeId="0" xr:uid="{895984FD-993C-4DEB-99AD-FDD6B30049CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Glo Canonoy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://monuments.iec.cat/fitxa.asp?id=366</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{E7BDE338-D151-4E91-9AC5-65CD9AB15A66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Glo Canonoy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://w10.bcn.es/APPS/gmocataleg_monum/FitxaMonumentAc.do?idioma=EN&amp;codiMonumIntern=960
+https://monuments.iec.cat/fitxa.asp?id=722</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q42" authorId="0" shapeId="0" xr:uid="{4AE79B40-2013-4FE4-9E7A-0DE926572B51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Glo Canonoy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://monuments.iec.cat/fitxa.asp?id=884</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q49" authorId="1" shapeId="0" xr:uid="{FEDD2E7D-C62C-4537-AB99-97555454577F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Canonoy, Glo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://monuments.iec.cat/fitxa.asp?id=908&amp;abrev=cat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q52" authorId="1" shapeId="0" xr:uid="{0AD92860-86CA-48C8-920D-16F3ACBAA47C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Canonoy, Glo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+https://w10.bcn.es/APPS/gmocataleg_monum/FitxaMonumentAc.do?idioma=EN&amp;codiMonumIntern=960
+https://monuments.iec.cat/fitxa.asp?id=722</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q57" authorId="0" shapeId="0" xr:uid="{15D6F54F-231D-4EAA-8902-39C3CCB6FA81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Glo Canonoy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://monuments.iec.cat/fitxa.asp?id=10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="393">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>locale_1</t>
+  </si>
+  <si>
+    <t>locale_2</t>
+  </si>
+  <si>
+    <t>locale_3</t>
+  </si>
+  <si>
+    <t>locale_4</t>
+  </si>
+  <si>
+    <t>locale_5</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>oldest_known_year</t>
+  </si>
+  <si>
+    <t>oldest_known_month</t>
+  </si>
+  <si>
+    <t>oldest_known_day</t>
+  </si>
+  <si>
+    <t>oldest_known_source</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>desc_language</t>
+  </si>
+  <si>
+    <t>alt_name</t>
+  </si>
+  <si>
+    <t>former_name</t>
+  </si>
+  <si>
+    <t>verified_in_maps</t>
+  </si>
+  <si>
+    <t>openstreetmap_link</t>
+  </si>
+  <si>
+    <t>google_maps_link</t>
+  </si>
+  <si>
+    <t>abacq_reference</t>
+  </si>
+  <si>
+    <t>Avinguda de Salvador Allende</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Valencian Community</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>la Ribera Alta</t>
+  </si>
+  <si>
+    <t>Carlet</t>
+  </si>
+  <si>
+    <t>46240</t>
+  </si>
+  <si>
+    <t>google maps</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/904311412</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/DFqwbUcTjFXukqHW7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2013/09/13/615-carlet-espana</t>
+  </si>
+  <si>
+    <t>Bulevar de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Community of Madrid</t>
+  </si>
+  <si>
+    <t>Área metropolitana de Madrid y Corredor del Henares</t>
+  </si>
+  <si>
+    <t>Alcobendas</t>
+  </si>
+  <si>
+    <t>20108</t>
+  </si>
+  <si>
+    <t>Salvador Allende nació el 26 de junio de 1908 en Valparaíso.
+Se tituló de médico cirujano
+En 1948 se casó con Hortensia Bussi y tuvo tres hijas, Laura, Isabel y Beatriz
+Dejando un legado inconmensurable para las futuras generaciones muere el 11 de septiembre de 1973
+Fue elegido presidente de la República de Chile el 4 de noviembre de 1970. El golpe de estado de 1973 pone fin al gobierno popular
+Su nombre y memoria crecen entregando un ejemplo de convicción democrática
+El presidente muere en el Palacio de la Moneda
+Salvador Allende
+1908 1973
+Trabajadores de mi patria, tengo fe en Chile y su destino. Superarán otros hombres este momento gris y amargo en el que la traición pretende imponerse. Sigan ustedes sabiendo que, mucho más temprano que tarde, de nuevo se abrirán las grandes alamedas por donde pase el hombre libre, para construir una sociedad mejor.</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/9374038</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/EcX4RosnPDeHuqNn7</t>
+  </si>
+  <si>
+    <t>A Salvador Allende</t>
+  </si>
+  <si>
+    <t>monument</t>
+  </si>
+  <si>
+    <t>Catalonia</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Barcelonès</t>
+  </si>
+  <si>
+    <t>Badalona</t>
+  </si>
+  <si>
+    <t>Districte 4</t>
+  </si>
+  <si>
+    <t>08911</t>
+  </si>
+  <si>
+    <t>desc other</t>
+  </si>
+  <si>
+    <t>A SALVADOR ALLENDE
+“La historia es nuestra y la hacen los pueblos”
+SALVADOR ALLENDE GOSSENS 1908-1973 / Polític xilè. Fundador del Partit Socialista xilè, Ministre de Sanitat, diputat i senador.
+Elegit President de la República l’any 1970, el / seu govern va iniciar el camí vers el / socialisme per la via democràtica, realitzant / importants reformes i nacionalitzacions.
+L’11 de setembre de 1973 el Govern de la Unitat Popular, presidit per Allende, va ser / enderrocat per un cop d’estat. Salvador Allende mor heroicament durant l’assalt al / Palau de la Moneda.</t>
+  </si>
+  <si>
+    <t>ca, es</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/903753478</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/fF15hnowAhoMGLPbA</t>
+  </si>
+  <si>
+    <t>Plaza de Salvador Allende</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Centro y casco histórico</t>
+  </si>
+  <si>
+    <t>Malatería</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/254854574</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/8icTumtsFn6pc45A9</t>
+  </si>
+  <si>
+    <t>Monumento y Parque Salvador Allende</t>
+  </si>
+  <si>
+    <t>Gijón</t>
+  </si>
+  <si>
+    <t>Distrito Sur</t>
+  </si>
+  <si>
+    <t>Roces</t>
+  </si>
+  <si>
+    <t>desc place</t>
+  </si>
+  <si>
+    <t>Sigan ustedes sabiendo que, mucho más temprano que tarde, de nuevo abrirán las grandes alamedas por donde pase el hombre libre, para construir una sociedad mejor.
+Salvador Allende Gossens
+11 de Septiembre de 1973
+Ayuntamiento de Gijón
+Obra de Mónica Bunster
+Réplica de la instalada en Palmilla (Chile)
+Gijón, Mayo de 1999</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/304129424</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/bUi2wZSMXuCR2h4M6</t>
+  </si>
+  <si>
+    <t>Calle de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Carabanchel</t>
+  </si>
+  <si>
+    <t>Buenavista</t>
+  </si>
+  <si>
+    <t>desc abacq</t>
+  </si>
+  <si>
+    <t>Calle de Salvador Allende
+"... y se abrirán las grandes alamedas ..."
+Presidente de Chile 1970-1973</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/27885888</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/gcFXtZchxfq4kGE3A</t>
+  </si>
+  <si>
+    <t>Monolito en recuerdo al presidente Salvador Allende en el Parque del Pescador</t>
+  </si>
+  <si>
+    <t>Tarragona</t>
+  </si>
+  <si>
+    <t>Bajo Campo</t>
+  </si>
+  <si>
+    <t>Cambrils</t>
+  </si>
+  <si>
+    <t>Parc del Pescador</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/10/07/549-cambrils-espana</t>
+  </si>
+  <si>
+    <t>Lleida</t>
+  </si>
+  <si>
+    <t>Segrià</t>
+  </si>
+  <si>
+    <t>Sant Ignasi</t>
+  </si>
+  <si>
+    <t>25002</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/10683652596</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/6QRvehruw1AUpsr46</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/09/10/543-lerida-espana</t>
+  </si>
+  <si>
+    <t>Alto Campo</t>
+  </si>
+  <si>
+    <t>Valls</t>
+  </si>
+  <si>
+    <t>Plaça de l'Estació</t>
+  </si>
+  <si>
+    <t>La Ciutat de Valls a Salvador Allende, President de Xile 1970 - 1973 
+Valls, 16 de setembre de 2010
+La historia es nuestra y la hacen los pueblos</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/Ts8NuapiWpTANj9R6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/09/09/538-valls-espana</t>
+  </si>
+  <si>
+    <t>Calle Salvador Allende</t>
+  </si>
+  <si>
+    <t>Andalusia</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Comarca de la Vega de Granada</t>
+  </si>
+  <si>
+    <t>Peligros</t>
+  </si>
+  <si>
+    <t>Monteluz</t>
+  </si>
+  <si>
+    <t>18210</t>
+  </si>
+  <si>
+    <t>abacq date posted</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/129324725</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/oMHse5jSRb9dGQWb9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/20-espana</t>
+  </si>
+  <si>
+    <t>Parc Salvador Allende</t>
+  </si>
+  <si>
+    <t>Vallés Occidental</t>
+  </si>
+  <si>
+    <t>Montcada i Reixac</t>
+  </si>
+  <si>
+    <t>Montcada Nova</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/453500065</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/djWpvB6arNFoEgb6A?coh=178573&amp;entry=tt</t>
+  </si>
+  <si>
+    <t>Avenida de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Castile-La Mancha</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Talavera</t>
+  </si>
+  <si>
+    <t>Talavera de la Reina</t>
+  </si>
+  <si>
+    <t>San Jerónimo</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/650379497</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/qWed3bGEkYVo9YEu6</t>
+  </si>
+  <si>
+    <t>Montes de Toledo</t>
+  </si>
+  <si>
+    <t>Urda</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/214486907</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/CDm4dncQjQJHfzXz7</t>
+  </si>
+  <si>
+    <t>Torrijos</t>
+  </si>
+  <si>
+    <t>openstreetmap</t>
+  </si>
+  <si>
+    <t>Calle Voluntarios de Toledo</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/365006471</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/jh8ftYy82vUd4G167?coh=178573&amp;entry=tt</t>
+  </si>
+  <si>
+    <t>Carrer Salvador Allende</t>
+  </si>
+  <si>
+    <t>Alicante</t>
+  </si>
+  <si>
+    <t>La Hoya de Alcoy</t>
+  </si>
+  <si>
+    <t>Alcoy</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>03802</t>
+  </si>
+  <si>
+    <t>Carrer Salvador Allende
+President de Xile
+1970-1973</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/55218876</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/3MvXdjUtpRjtx9Fn7?coh=178573&amp;entry=tt</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>Campo de Gibraltar</t>
+  </si>
+  <si>
+    <t>Algeciras</t>
+  </si>
+  <si>
+    <t>Urbanización Parque Bolonia</t>
+  </si>
+  <si>
+    <t>Calle Salvador Allende
+Político Chileno (1908-1973)</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/267056639</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/SkP8RxmWehrP5wWv5</t>
+  </si>
+  <si>
+    <t>Plaza Salvador Allende</t>
+  </si>
+  <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>Almansa</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/571083259</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/abTfhQjfrmbsnuae8</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Arrecife</t>
+  </si>
+  <si>
+    <t>Titerroy</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/143449990</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/9cAzsKdB4vSEJMvm7</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Posadas</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/328386060</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/rbuvE25LZtxeL6gn6</t>
+  </si>
+  <si>
+    <t>Rúa Salvador Allende</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>A Coruña</t>
+  </si>
+  <si>
+    <t>Culleredo</t>
+  </si>
+  <si>
+    <t>Rutis</t>
+  </si>
+  <si>
+    <t>Cordeda</t>
+  </si>
+  <si>
+    <t>15174</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/210414091</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/Z4wtSUVRsp11zSP66</t>
+  </si>
+  <si>
+    <t>Bajo Llobregat</t>
+  </si>
+  <si>
+    <t>Cornellà de Llobregat</t>
+  </si>
+  <si>
+    <t>la Gavarra</t>
+  </si>
+  <si>
+    <t>08940</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/551625663</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/3CqTudJLv3rRXKtA6</t>
+  </si>
+  <si>
+    <t>Passatge Salvador Allende</t>
+  </si>
+  <si>
+    <t>Garraf</t>
+  </si>
+  <si>
+    <t>Cubelles</t>
+  </si>
+  <si>
+    <t>08880</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/1151591997</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/3zqHAoG1KUQLmj6F6</t>
+  </si>
+  <si>
+    <t>Rúa de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Pontevedra</t>
+  </si>
+  <si>
+    <t>Vigo</t>
+  </si>
+  <si>
+    <t>San Tomé de Freixeiro</t>
+  </si>
+  <si>
+    <t>Tralagándara</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/36964817</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/5ZJFtdXr44tKmoFJA</t>
+  </si>
+  <si>
+    <t>Ingenio</t>
+  </si>
+  <si>
+    <t>Cercado Grande</t>
+  </si>
+  <si>
+    <t>Calle Rosarito</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/448795889</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/V7yRbH2mYRheUWVH6</t>
+  </si>
+  <si>
+    <t>Rúa do Presidente Salvador Allende</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Santiago de Compostela</t>
+  </si>
+  <si>
+    <t>Asén</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/762120273</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/NX3xPQ4BGnV1wDL17</t>
+  </si>
+  <si>
+    <t>Avenida Salvador Allende</t>
+  </si>
+  <si>
+    <t>Region of Murcia</t>
+  </si>
+  <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>Fortuna</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/222885590</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/HrpfMDbq7MtLUdpa6</t>
+  </si>
+  <si>
+    <t>Atarfe</t>
+  </si>
+  <si>
+    <t>Santa Amalia</t>
+  </si>
+  <si>
+    <t>Al presidente de Chile Salvador Allende por la libertad. Atarfe 1992. "Colocado en un trance histórico, pagaré con mi vida la lealtad del pueblo." Salvador Allende. Septiembre 1973</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/550263249</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/iFvZRAxkkawBfHCT6</t>
+  </si>
+  <si>
+    <t>Parque de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Móstoles</t>
+  </si>
+  <si>
+    <t>Villafontana II</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/32012075</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/uKQPCy1mmCMT1eBD9</t>
+  </si>
+  <si>
+    <t>Salvador Allende Parkea</t>
+  </si>
+  <si>
+    <t>Autonomous Community of the Basque Country</t>
+  </si>
+  <si>
+    <t>Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Donostialdea</t>
+  </si>
+  <si>
+    <t>San Sebastián</t>
+  </si>
+  <si>
+    <t>Mirakruz - Bidebieta</t>
+  </si>
+  <si>
+    <t>Memoriaren Lekuak
+Lugares de la Memoria
+Salvador Allende Park
+Scene of executions
+Bidebieta firing range, 1936.
+The firing range of Bidebieta, scene of multiple executions after the capture of the city (13/09/1936) by the coup troops, was located on this land. Around 400 people are currently estimated to have been shot in San Sebastián in the context of the Francoist Repression between 1936 and 1945.</t>
+  </si>
+  <si>
+    <t>eu, es, en, fr</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/217198782</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/64SwajnNtehwq73x6?coh=178573&amp;entry=tt</t>
+  </si>
+  <si>
+    <t>Coslada</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/28505387</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/WGeKtPU2YU8wGJdG6</t>
+  </si>
+  <si>
+    <t>Instituto de Educación Secundaria Salvador Allende</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>El Naranjo - La Serna</t>
+  </si>
+  <si>
+    <t>El Camino</t>
+  </si>
+  <si>
+    <t>28940</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/28670674</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/gDQvmDCZwbfbyPTX6</t>
+  </si>
+  <si>
+    <t>Campiña de Jerez</t>
+  </si>
+  <si>
+    <t>Jerez</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>11403</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/402773537</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/gwgszxHTweSoZbrv8</t>
+  </si>
+  <si>
+    <t>Santa Lucía de Tirajana</t>
+  </si>
+  <si>
+    <t>Vecindario</t>
+  </si>
+  <si>
+    <t>35110</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/221915547</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/WofxyU3JBgjrbbey7</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2011/03/06/516-vecindario-gran-canaria-espana</t>
+  </si>
+  <si>
+    <t>Plaça de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Vallès Occidental</t>
+  </si>
+  <si>
+    <t>Rubí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquesta placa simbolitza l'esforc de l'expresident Salvador Allende per preservar els drets I les llibertats del poble Xile 
+Rubi, 14 de novembre de 1999
+</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/938594166</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/LQ8HKYQostVA1qG6A</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/09/03/500-rubi-espana</t>
+  </si>
+  <si>
+    <t>Sala Salvador Allende, Punto de Información Cultural de la Universidad de Alicante</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>Sala Salvador Allende 
+Chile 
+Centenari del naixement 1908 - 2008.
+Tienen la fuerza, podrán avasallarnos, pero no se detienen los procesos sociales ni con el crimen ni con la fuerza. La historia es nuestra y la hacen los pueblos.
+Ultimo discurso de Salvador Allende, 1973</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/04/09/447-alicante-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2010/02/24/473-coslada-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/11/24/433-oviedo-espana</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/623850146</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/10/25/425-barcelona-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/10/14/422-alcobendas-espana</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Marinaleda</t>
+  </si>
+  <si>
+    <t>Barriada Diamantino García Acosta</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/1051144055</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/YDr7u6mqZjQ1H3op9</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/09/28/415-marinaleda-espana</t>
+  </si>
+  <si>
+    <t>Biblioteca Salvador Allende</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Gironès</t>
+  </si>
+  <si>
+    <t>Santa Eugènia</t>
+  </si>
+  <si>
+    <t>17006</t>
+  </si>
+  <si>
+    <t>La historia es nuestra y la hacen los pueblos.
+Siempre estaré junto a ustedes. Por lo menos mi recuerdo será el de un hombre digno que fue leal con la patria.
+El pueblo debe defenderse, pero no sacrificarse. El pueblo no debe dejarse arrasar ni acribillar, pero tampoco puede humillarse.
+Trabajadores de mi patria, tengo fe en Chile y su destino. Superarán otros hombres este momento gris y amargo en el que la traición pretende imponerse. Sigan ustedes sabiendo que, mucho más temprano que tarde, de nuevo se abrirán las grandes alamedas por donde pase el hombre libre, para construir una sociedad mejor.
+¡Viva Chile! ¡Viva el pueblo! ¡Vivan los trabajadores!
+Estas son mis últimas palabras y tengo la certeza de que mi sacrificio no será en vano, tengo la certeza de que, por lo menos, será una lección moral que castigará la felonía, la cobardía y la traición.
+Salvador Allende 11 septiembre 1973</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/4847795598</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/RNqC2MbYS1T4sRvg6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/09/22/414-gerona-espana</t>
+  </si>
+  <si>
+    <t>Baix Camp</t>
+  </si>
+  <si>
+    <t>Reus</t>
+  </si>
+  <si>
+    <t>Sant Josep Obrer</t>
+  </si>
+  <si>
+    <t>43201</t>
+  </si>
+  <si>
+    <t>Salvador Allende 
+President de la Republica de Xile
+1908-1973
+In Memoriam</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/369791895</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/eGyxepNhQ4BnByTy9</t>
+  </si>
+  <si>
+    <t>Busto de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Leganés</t>
+  </si>
+  <si>
+    <t>San Nicasio</t>
+  </si>
+  <si>
+    <t>Calle Río Tiber</t>
+  </si>
+  <si>
+    <t>28918</t>
+  </si>
+  <si>
+    <t>La Asociación chilena pro DD.HH. Francisco Aedo al pueblo y excmo. ayuntamiento de Leganés en agradecimiento por su acogida y permanente apoyo a los chilenos residentes 
+Leganés, 11 de septiembre de 2009 
+Salvador Allende
+Presidente de Chile
+Leganés - 14 - Mayo - 2001
+Escultora: Eva Montoro</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/9931371610</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/CsG7mxoTPcNcxLUQ6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/09/13/403-leganes-espana</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/257256112</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/er1wXnJ6huEabs9P9</t>
+  </si>
+  <si>
+    <t>Aragon</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Zalfonada</t>
+  </si>
+  <si>
+    <t>50015</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/601298892</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/mzRYKksNBJBUvc4H6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/09/08/390-zaragoza-espana</t>
+  </si>
+  <si>
+    <t>Monumento a Salvador Allende</t>
+  </si>
+  <si>
+    <t>La ciudad de Zaragoza a la memoria de Salvador Allende presidente de Chile</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/Dj6d4sMy53omZxoT8</t>
+  </si>
+  <si>
+    <t>Carrer de Salvador Allende</t>
+  </si>
+  <si>
+    <t>Baix Llobregat</t>
+  </si>
+  <si>
+    <t>Sant Boi de Llobregat</t>
+  </si>
+  <si>
+    <t>Marianao</t>
+  </si>
+  <si>
+    <t>08830</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/4748091</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/AbL8assoqBFJq5LR8</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/07/02/365-sant-boi-de-llobregat-espana</t>
+  </si>
+  <si>
+    <t>Cuenca del Henares</t>
+  </si>
+  <si>
+    <t>Rivas-Vaciamadrid</t>
+  </si>
+  <si>
+    <t>Rivas Este</t>
+  </si>
+  <si>
+    <t>Residencial Lagos de Rivas</t>
+  </si>
+  <si>
+    <t>28521</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/32646316</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/mqButqS9D4frFH9Z6</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/06/12/364-rivas-vaciamadrid-espana</t>
+  </si>
+  <si>
+    <t>Balearic Islands</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>es Camp Redó</t>
+  </si>
+  <si>
+    <t>07004</t>
+  </si>
+  <si>
+    <t>Carrer de Salvador Allende
+Politic (1908-1973)</t>
+  </si>
+  <si>
+    <t>Carrer d'Henri Dunant</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/33242788</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/UTEXGxZpUfyHAkQEA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/03/07/331-palma-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/02/01/310-peligros-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2009/01/24/308-tarragona-espana</t>
+  </si>
+  <si>
+    <t>Colegio de Educación Infantil y Primaria Salvador Allende</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Málaga-Costa del Sol</t>
+  </si>
+  <si>
+    <t>Málaga</t>
+  </si>
+  <si>
+    <t>Puerto de la Torre</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/981847986</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/MdRCfPJYDNRZQq7cA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/08/28/248-puerto-de-la-torre-malaga-espana</t>
+  </si>
+  <si>
+    <t>Telde</t>
+  </si>
+  <si>
+    <t>A Salvador Allende 
+(26/06/1908 - 11/09/1973)</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/CBQnupKVt2uEgMe96</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/06/26/211-telde-gran-canaria-espana</t>
+  </si>
+  <si>
+    <t>Este</t>
+  </si>
+  <si>
+    <t>29017</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/34611179</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/okWPK8wQR8uBJLps5</t>
+  </si>
+  <si>
+    <t>Costa del Sol Occidental</t>
+  </si>
+  <si>
+    <t>Torremolinos</t>
+  </si>
+  <si>
+    <t>29260</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/150665073</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/jn4opqyS31UcaetRA</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/02/27/150-malaga-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2008/02/05/144-malaga-espana</t>
+  </si>
+  <si>
+    <t>Any building, street, or park to be named after Salvador Allende</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Ciempozuelos</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/12/26/134-ciempozuelos-espana</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/S6QbjnrNKJ4vATir9?coh=178573&amp;entry=tt</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/10/25/125-madrid-espana</t>
+  </si>
+  <si>
+    <t>Tarragonés</t>
+  </si>
+  <si>
+    <t>Part Alta</t>
+  </si>
+  <si>
+    <t>La Ciutat de Tarragona a Salvador Allende Gossens</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/2kTMzzJKvu8yQALDA</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>Badajoz</t>
+  </si>
+  <si>
+    <t>Castuera</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/09/11/93-castuera-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/07/11/84-leganes-telde-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/07/09/82-barcelona-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/03/21/63-gijon-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/19/7-madrid-espana</t>
+  </si>
+  <si>
+    <t>http://www.abacq.org/calle/index.php?2007/02/18/48-zaragoza-espana</t>
+  </si>
+  <si>
+    <t>SALVADOR ALLENDE / 1920-1973 / ESC. LAUTARO DÍAZ</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/SHQ7DiVatGPj3VcF6</t>
+  </si>
+  <si>
+    <t>LA CIUTAT DE TARRAGONA A / SALVADOR ALLENDE / 1908-1973</t>
+  </si>
+  <si>
+    <t>Joc de nens (Homenatge a Salvador Allende)</t>
+  </si>
+  <si>
+    <t>SALVADOR ALLENDE GOSSENS / 1908-1973 / Presidente de Chile, 1970-1973
+LA REVOLUCIÓ NO IMPLICA DESTRUIR, SINÓ CONSTRUIR</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/4kN9QWbYgfq1vvNn7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +1538,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +1546,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -381,17 +1911,3720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1419D400-0CAB-4D78-B59B-DD253DD14ADD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1419D400-0CAB-4D78-B59B-DD253DD14ADD}">
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>39.229927600000003</v>
+      </c>
+      <c r="M2">
+        <v>-0.52442699999999998</v>
+      </c>
+      <c r="N2">
+        <v>2008</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3">
+        <v>43850</v>
+      </c>
+      <c r="L3">
+        <v>41.065492440440501</v>
+      </c>
+      <c r="M3">
+        <v>1.0565204065110001</v>
+      </c>
+      <c r="N3">
+        <v>2010</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4">
+        <v>41.606675799999998</v>
+      </c>
+      <c r="M4">
+        <v>0.61785630000000002</v>
+      </c>
+      <c r="N4">
+        <v>1998</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" t="s">
+        <v>387</v>
+      </c>
+      <c r="S4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>43491</v>
+      </c>
+      <c r="L5">
+        <v>41.2891750305375</v>
+      </c>
+      <c r="M5">
+        <v>1.25834652245962</v>
+      </c>
+      <c r="N5">
+        <v>2010</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6">
+        <v>41.488509999999998</v>
+      </c>
+      <c r="M6">
+        <v>2.18621</v>
+      </c>
+      <c r="N6">
+        <v>2007</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7">
+        <v>45600</v>
+      </c>
+      <c r="L7">
+        <v>39.961350000000003</v>
+      </c>
+      <c r="M7">
+        <v>-4.8255400000000002</v>
+      </c>
+      <c r="N7">
+        <v>2007</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>315</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8">
+        <v>39.413800000000002</v>
+      </c>
+      <c r="M8">
+        <v>-3.7234500000000001</v>
+      </c>
+      <c r="N8">
+        <v>2007</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9">
+        <v>45500</v>
+      </c>
+      <c r="L9">
+        <v>39.986899999999999</v>
+      </c>
+      <c r="M9">
+        <v>-4.2808400000000004</v>
+      </c>
+      <c r="N9">
+        <v>2018</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U9" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10">
+        <v>38.695999999999998</v>
+      </c>
+      <c r="M10">
+        <v>-0.48238999999999999</v>
+      </c>
+      <c r="N10">
+        <v>2007</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>318</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11">
+        <v>11202</v>
+      </c>
+      <c r="L11">
+        <v>36.134619999999998</v>
+      </c>
+      <c r="M11">
+        <v>-5.4523099999999998</v>
+      </c>
+      <c r="N11">
+        <v>2007</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12">
+        <v>38.86786</v>
+      </c>
+      <c r="M12">
+        <v>-1.09619</v>
+      </c>
+      <c r="N12">
+        <v>2007</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>320</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13">
+        <v>35507</v>
+      </c>
+      <c r="L13">
+        <v>28.966757091767398</v>
+      </c>
+      <c r="M13">
+        <v>-13.5553765146192</v>
+      </c>
+      <c r="N13">
+        <v>2007</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14">
+        <v>14730</v>
+      </c>
+      <c r="L14">
+        <v>37.803085414833198</v>
+      </c>
+      <c r="M14">
+        <v>-5.1054164349187703</v>
+      </c>
+      <c r="N14">
+        <v>2007</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>322</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15">
+        <v>43.319771099999997</v>
+      </c>
+      <c r="M15">
+        <v>-8.3764702999999994</v>
+      </c>
+      <c r="N15">
+        <v>2007</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>323</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16">
+        <v>41.356788999999999</v>
+      </c>
+      <c r="M16">
+        <v>2.075485</v>
+      </c>
+      <c r="N16">
+        <v>2007</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>324</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17">
+        <v>41.198282901367001</v>
+      </c>
+      <c r="M17">
+        <v>1.6597664447543501</v>
+      </c>
+      <c r="N17">
+        <v>2007</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>325</v>
+      </c>
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18">
+        <v>36210</v>
+      </c>
+      <c r="L18">
+        <v>42.218725622078601</v>
+      </c>
+      <c r="M18">
+        <v>-8.7372137121920694</v>
+      </c>
+      <c r="N18">
+        <v>2007</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>326</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19">
+        <v>35240</v>
+      </c>
+      <c r="L19">
+        <v>27.931914963457402</v>
+      </c>
+      <c r="M19">
+        <v>-15.425914155550901</v>
+      </c>
+      <c r="N19">
+        <v>2007</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>110</v>
+      </c>
+      <c r="T19" t="s">
+        <v>199</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>327</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20">
+        <v>15705</v>
+      </c>
+      <c r="L20">
+        <v>42.881865280720298</v>
+      </c>
+      <c r="M20">
+        <v>-8.5491510724775104</v>
+      </c>
+      <c r="N20">
+        <v>2007</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21">
+        <v>30620</v>
+      </c>
+      <c r="L21">
+        <v>38.179723988982602</v>
+      </c>
+      <c r="M21">
+        <v>-1.12729404939768</v>
+      </c>
+      <c r="N21">
+        <v>2007</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22">
+        <v>37.228879999999997</v>
+      </c>
+      <c r="M22">
+        <v>-3.6839300000000001</v>
+      </c>
+      <c r="N22">
+        <v>1992</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" t="s">
+        <v>216</v>
+      </c>
+      <c r="S22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23">
+        <v>40.326099999999997</v>
+      </c>
+      <c r="M23">
+        <v>-3.8505600000000002</v>
+      </c>
+      <c r="N23">
+        <v>2007</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>18</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>331</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24">
+        <v>43.324399999999997</v>
+      </c>
+      <c r="M24">
+        <v>-1.94347</v>
+      </c>
+      <c r="N24">
+        <v>2007</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" t="s">
+        <v>230</v>
+      </c>
+      <c r="S24" t="s">
+        <v>231</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25">
+        <v>40.290276499999997</v>
+      </c>
+      <c r="M25">
+        <v>-3.798069870771331</v>
+      </c>
+      <c r="N25">
+        <v>2007</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>110</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26">
+        <v>36.686493200000001</v>
+      </c>
+      <c r="M26">
+        <v>-6.1395356000000003</v>
+      </c>
+      <c r="N26">
+        <v>2007</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>110</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27">
+        <v>27.845506700000001</v>
+      </c>
+      <c r="M27">
+        <v>-15.4445157</v>
+      </c>
+      <c r="N27">
+        <v>2011</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>110</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>335</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28">
+        <v>41.490278149999988</v>
+      </c>
+      <c r="M28">
+        <v>2.0300276461671212</v>
+      </c>
+      <c r="N28">
+        <v>1999</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+      <c r="P28">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s">
+        <v>260</v>
+      </c>
+      <c r="S28" t="s">
+        <v>144</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29">
+        <v>2008</v>
+      </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
+      <c r="P29">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" t="s">
+        <v>266</v>
+      </c>
+      <c r="S29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>337</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30">
+        <v>40.4289147</v>
+      </c>
+      <c r="M30">
+        <v>-3.546082771422018</v>
+      </c>
+      <c r="N30">
+        <v>2007</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>110</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31">
+        <v>43.355326849999997</v>
+      </c>
+      <c r="M31">
+        <v>-5.8474132034846136</v>
+      </c>
+      <c r="N31">
+        <v>2008</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32">
+        <v>41.439136300000001</v>
+      </c>
+      <c r="M32">
+        <v>2.225117</v>
+      </c>
+      <c r="N32">
+        <v>1985</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>340</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33">
+        <v>40.5376756</v>
+      </c>
+      <c r="M33">
+        <v>-3.6343730999999999</v>
+      </c>
+      <c r="N33">
+        <v>2008</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>341</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34">
+        <v>37.3727211</v>
+      </c>
+      <c r="M34">
+        <v>-4.9559752929622842</v>
+      </c>
+      <c r="N34">
+        <v>2008</v>
+      </c>
+      <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35">
+        <v>41.978144399999998</v>
+      </c>
+      <c r="M35">
+        <v>2.8065997</v>
+      </c>
+      <c r="N35">
+        <v>1998</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>11</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35" t="s">
+        <v>285</v>
+      </c>
+      <c r="S35" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36">
+        <v>28913</v>
+      </c>
+      <c r="L36">
+        <v>40.335369999999998</v>
+      </c>
+      <c r="M36">
+        <v>-3.7788900000000001</v>
+      </c>
+      <c r="N36">
+        <v>2008</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>344</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>308</v>
+      </c>
+      <c r="H37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37">
+        <v>41.667630699999997</v>
+      </c>
+      <c r="M37">
+        <v>-0.87668550000000001</v>
+      </c>
+      <c r="N37">
+        <v>2007</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>18</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>110</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>345</v>
+      </c>
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" t="s">
+        <v>318</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38">
+        <v>41.349343400000002</v>
+      </c>
+      <c r="M38">
+        <v>2.0348324</v>
+      </c>
+      <c r="N38">
+        <v>2008</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39">
+        <v>40.332168600000003</v>
+      </c>
+      <c r="M39">
+        <v>-3.5111085000000002</v>
+      </c>
+      <c r="N39">
+        <v>2008</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>34</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>347</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40">
+        <v>39.586942999999998</v>
+      </c>
+      <c r="M40">
+        <v>2.6550283000000001</v>
+      </c>
+      <c r="N40">
+        <v>2009</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40" t="s">
+        <v>337</v>
+      </c>
+      <c r="S40" t="s">
+        <v>144</v>
+      </c>
+      <c r="U40" t="s">
+        <v>338</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>348</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" t="s">
+        <v>109</v>
+      </c>
+      <c r="L41">
+        <v>37.229588700000001</v>
+      </c>
+      <c r="M41">
+        <v>-3.6307174999999998</v>
+      </c>
+      <c r="N41">
+        <v>2007</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>18</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>110</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>349</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>374</v>
+      </c>
+      <c r="I42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>43001</v>
+      </c>
+      <c r="L42" s="4">
+        <v>41.118826154764399</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1.23964280183766</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1997</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>350</v>
+      </c>
+      <c r="B43" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43">
+        <v>29190</v>
+      </c>
+      <c r="L43">
+        <v>36.736139999999999</v>
+      </c>
+      <c r="M43">
+        <v>-4.4818300000000004</v>
+      </c>
+      <c r="N43">
+        <v>2008</v>
+      </c>
+      <c r="O43">
+        <v>8</v>
+      </c>
+      <c r="P43">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>110</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>351</v>
+      </c>
+      <c r="B44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44">
+        <v>35200</v>
+      </c>
+      <c r="L44">
+        <v>27.991372809720499</v>
+      </c>
+      <c r="M44">
+        <v>-15.422726724885401</v>
+      </c>
+      <c r="N44">
+        <v>2003</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" t="s">
+        <v>353</v>
+      </c>
+      <c r="S44" t="s">
+        <v>44</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>352</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" t="s">
+        <v>360</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45">
+        <v>36.604647700000001</v>
+      </c>
+      <c r="M45">
+        <v>-4.5088251000000001</v>
+      </c>
+      <c r="N45">
+        <v>2007</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>18</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>110</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" t="s">
+        <v>346</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K46" t="s">
+        <v>357</v>
+      </c>
+      <c r="L46">
+        <v>36.719333300000002</v>
+      </c>
+      <c r="M46">
+        <v>-4.3592959000000002</v>
+      </c>
+      <c r="N46">
+        <v>2007</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>18</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>110</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>354</v>
+      </c>
+      <c r="B47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47">
+        <v>28350</v>
+      </c>
+      <c r="N47">
+        <v>2007</v>
+      </c>
+      <c r="O47">
+        <v>12</v>
+      </c>
+      <c r="P47">
+        <v>26</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>80</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>355</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48">
+        <v>28054</v>
+      </c>
+      <c r="L48">
+        <v>40.363809341405798</v>
+      </c>
+      <c r="M48">
+        <v>-3.7569696859150299</v>
+      </c>
+      <c r="N48">
+        <v>2007</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>25</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>110</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>356</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>374</v>
+      </c>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49">
+        <v>43001</v>
+      </c>
+      <c r="L49">
+        <v>41.119417101688697</v>
+      </c>
+      <c r="M49">
+        <v>1.25556518470165</v>
+      </c>
+      <c r="N49">
+        <v>2008</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>55</v>
+      </c>
+      <c r="R49" t="s">
+        <v>376</v>
+      </c>
+      <c r="S49" t="s">
+        <v>144</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>357</v>
+      </c>
+      <c r="B50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" t="s">
+        <v>379</v>
+      </c>
+      <c r="H50" t="s">
+        <v>380</v>
+      </c>
+      <c r="N50">
+        <v>2007</v>
+      </c>
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>11</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>110</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>358</v>
+      </c>
+      <c r="B51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" t="s">
+        <v>300</v>
+      </c>
+      <c r="L51">
+        <v>40.334945300000001</v>
+      </c>
+      <c r="M51">
+        <v>-3.7788797000000001</v>
+      </c>
+      <c r="N51">
+        <v>2001</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <v>14</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s">
+        <v>301</v>
+      </c>
+      <c r="S51" t="s">
+        <v>44</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>359</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52">
+        <v>41.439136300000001</v>
+      </c>
+      <c r="M52">
+        <v>2.225117</v>
+      </c>
+      <c r="N52">
+        <v>1997</v>
+      </c>
+      <c r="O52">
+        <v>9</v>
+      </c>
+      <c r="P52">
+        <v>11</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" t="s">
+        <v>56</v>
+      </c>
+      <c r="S52" t="s">
+        <v>57</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>360</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53">
+        <v>43.517951449999998</v>
+      </c>
+      <c r="M53">
+        <v>-5.6828972140823204</v>
+      </c>
+      <c r="N53">
+        <v>1999</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>72</v>
+      </c>
+      <c r="R53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s">
+        <v>44</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>361</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54">
+        <v>28054</v>
+      </c>
+      <c r="L54">
+        <v>40.361089999999997</v>
+      </c>
+      <c r="M54">
+        <v>-3.7579400000000001</v>
+      </c>
+      <c r="N54">
+        <v>2004</v>
+      </c>
+      <c r="O54">
+        <v>11</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54" t="s">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s">
+        <v>44</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>362</v>
+      </c>
+      <c r="B55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" t="s">
+        <v>309</v>
+      </c>
+      <c r="K55" t="s">
+        <v>310</v>
+      </c>
+      <c r="L55">
+        <v>41.667014124750402</v>
+      </c>
+      <c r="M55">
+        <v>-0.87633628792473095</v>
+      </c>
+      <c r="N55">
+        <v>2005</v>
+      </c>
+      <c r="O55">
+        <v>9</v>
+      </c>
+      <c r="P55">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>80</v>
+      </c>
+      <c r="R55" t="s">
+        <v>315</v>
+      </c>
+      <c r="S55" t="s">
+        <v>44</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>363</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" t="s">
+        <v>291</v>
+      </c>
+      <c r="K56" t="s">
+        <v>292</v>
+      </c>
+      <c r="L56">
+        <v>41.148875850000003</v>
+      </c>
+      <c r="M56">
+        <v>1.118567206063432</v>
+      </c>
+      <c r="N56">
+        <v>2009</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" t="s">
+        <v>293</v>
+      </c>
+      <c r="S56" t="s">
+        <v>57</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>364</v>
+      </c>
+      <c r="B57" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s">
+        <v>318</v>
+      </c>
+      <c r="I57" t="s">
+        <v>319</v>
+      </c>
+      <c r="J57" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" t="s">
+        <v>321</v>
+      </c>
+      <c r="L57">
+        <v>41.349305387902596</v>
+      </c>
+      <c r="M57">
+        <v>2.0350868850835999</v>
+      </c>
+      <c r="N57">
+        <v>1999</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>55</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="S57" t="s">
+        <v>57</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Y57" xr:uid="{1419D400-0CAB-4D78-B59B-DD253DD14ADD}"/>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{606DC503-35F6-4B3A-97D1-51ECED275184}"/>
+    <hyperlink ref="Y2" r:id="rId2" xr:uid="{7CDB81F8-4D12-44B5-B72F-62620235EBF7}"/>
+    <hyperlink ref="Y3" r:id="rId3" xr:uid="{D4C3FFB1-0D51-43C6-994B-D8D095755F54}"/>
+    <hyperlink ref="W4" r:id="rId4" xr:uid="{29794905-544E-4678-8532-13F77DD8C89E}"/>
+    <hyperlink ref="Y4" r:id="rId5" xr:uid="{3F3091BD-C365-4179-B786-B618C49F7FF0}"/>
+    <hyperlink ref="Y5" r:id="rId6" xr:uid="{1284614C-A4EB-4D03-9941-9F8B8DD44571}"/>
+    <hyperlink ref="W15" r:id="rId7" xr:uid="{BFEFD6C4-B501-4DC5-84AA-C44C407594DA}"/>
+    <hyperlink ref="Y15" r:id="rId8" xr:uid="{73468C6A-550F-4630-A84F-C82CC0E7A3FE}"/>
+    <hyperlink ref="Y16" r:id="rId9" xr:uid="{019150E6-A046-474A-8250-19A6BF79FDDE}"/>
+    <hyperlink ref="Y17" r:id="rId10" xr:uid="{40B5774E-6125-4821-8745-C62F987AB8E0}"/>
+    <hyperlink ref="Y22" r:id="rId11" xr:uid="{EA9AAD13-5AEB-4EC1-9C73-103AE5F72E7F}"/>
+    <hyperlink ref="Y23" r:id="rId12" xr:uid="{1494BE8E-E102-4598-8C9A-FE185A2EBFDF}"/>
+    <hyperlink ref="W25" r:id="rId13" xr:uid="{722A0F52-9892-4916-A519-AEED460AE73B}"/>
+    <hyperlink ref="Y25" r:id="rId14" xr:uid="{5A8651BB-A4E0-47D8-AD5F-A44F5550192F}"/>
+    <hyperlink ref="W26" r:id="rId15" xr:uid="{A863D9A9-A25F-4E42-AED5-74FFC48B26A4}"/>
+    <hyperlink ref="Y26" r:id="rId16" xr:uid="{BD5123FA-E7DE-49EA-AD51-15A86A65B0DD}"/>
+    <hyperlink ref="X2" r:id="rId17" xr:uid="{44C12C6C-A748-495E-BF30-4AFED99409FE}"/>
+    <hyperlink ref="X4" r:id="rId18" xr:uid="{E129263B-D797-4247-B99C-DCC33547AF03}"/>
+    <hyperlink ref="X5" r:id="rId19" xr:uid="{052EAD20-C56C-4DDF-BB6F-D55044282776}"/>
+    <hyperlink ref="X15" r:id="rId20" xr:uid="{5931976C-3AC0-43F3-AFC3-AC0B8B2B7B76}"/>
+    <hyperlink ref="X25" r:id="rId21" xr:uid="{C521F8F7-0A6C-43E6-9F9E-D500C9EDF89C}"/>
+    <hyperlink ref="X26" r:id="rId22" xr:uid="{2540294F-4761-403D-96B5-6790AE28D963}"/>
+    <hyperlink ref="X16" r:id="rId23" xr:uid="{24E45EB1-1FD5-4DB1-A072-CA643F6406A6}"/>
+    <hyperlink ref="W16" r:id="rId24" xr:uid="{3F987932-5DE5-4D30-8B52-2B590E392BD0}"/>
+    <hyperlink ref="W22" r:id="rId25" xr:uid="{278F1A1A-CF66-4CCB-9372-4298FBDC9B62}"/>
+    <hyperlink ref="X22" r:id="rId26" xr:uid="{F0565F8E-DA28-46D9-9AFA-2E4CECC707D5}"/>
+    <hyperlink ref="W23" r:id="rId27" xr:uid="{9D4D1539-6590-44CF-B70A-1993008854B3}"/>
+    <hyperlink ref="X23" r:id="rId28" xr:uid="{DB507581-2A70-4E7D-92B3-CC1D96242B13}"/>
+    <hyperlink ref="W24" r:id="rId29" xr:uid="{4DC50D33-FBBE-4E11-AA11-418C78E8153C}"/>
+    <hyperlink ref="X24" r:id="rId30" xr:uid="{0E9D0529-B333-4B26-BBEA-0C05AFCEAE8F}"/>
+    <hyperlink ref="Y24" r:id="rId31" xr:uid="{32888057-F3D4-4EF3-815E-8CC74DFA6E62}"/>
+    <hyperlink ref="Y18:Y21" r:id="rId32" display="http://www.abacq.org/calle/index.php?2007/02/18/20-espana" xr:uid="{E414174F-FE6E-4F52-BB18-ECC7FB62D42E}"/>
+    <hyperlink ref="W6" r:id="rId33" xr:uid="{41C07305-D515-4794-BDA3-FF593A5BF200}"/>
+    <hyperlink ref="X6" r:id="rId34" xr:uid="{2EC3B7AB-C1B2-4EFD-BE96-1B2060F221FE}"/>
+    <hyperlink ref="W7" r:id="rId35" xr:uid="{07423DC7-6647-4858-A5F4-32E70D4E0813}"/>
+    <hyperlink ref="W8" r:id="rId36" xr:uid="{B1CFC4D9-5054-412A-B0B8-AEA662C1DAC9}"/>
+    <hyperlink ref="W9" r:id="rId37" xr:uid="{633F7DCB-3A19-41C3-8D3F-E14CABDD3DF0}"/>
+    <hyperlink ref="X7" r:id="rId38" xr:uid="{9B1E74CD-871F-4477-876D-C87D43C650F9}"/>
+    <hyperlink ref="X8" r:id="rId39" xr:uid="{81114AFA-485F-4FC2-A7CC-3D82676A9CFB}"/>
+    <hyperlink ref="X9" r:id="rId40" xr:uid="{78BE5C44-C2FC-424C-91E6-734FA13E191D}"/>
+    <hyperlink ref="W10" r:id="rId41" xr:uid="{4A87AD2C-66FC-4263-8F5F-84A74CFBC455}"/>
+    <hyperlink ref="X10" r:id="rId42" xr:uid="{C43E981F-D162-4693-A4BF-B58FC71CAEEE}"/>
+    <hyperlink ref="W11" r:id="rId43" xr:uid="{A34AF294-8E27-4755-83CF-E743A6794C4F}"/>
+    <hyperlink ref="X11" r:id="rId44" xr:uid="{1AAF4F35-3276-4F00-81EA-3D9749D3A967}"/>
+    <hyperlink ref="W12" r:id="rId45" xr:uid="{739F804C-393B-4BE0-A800-A94B126D418A}"/>
+    <hyperlink ref="X12" r:id="rId46" xr:uid="{AFA3E935-7C15-4367-9FF3-E4F61227EADA}"/>
+    <hyperlink ref="X13" r:id="rId47" xr:uid="{03A987AB-28EF-4C1A-AAE8-33C427D3D681}"/>
+    <hyperlink ref="X18" r:id="rId48" xr:uid="{59FF3F6C-7B40-435C-A4DF-522AC0B99AFC}"/>
+    <hyperlink ref="X20" r:id="rId49" xr:uid="{B4FCADC6-5BAC-40DF-AC5A-C52E1DF04CD1}"/>
+    <hyperlink ref="X21" r:id="rId50" xr:uid="{8612554C-7D3A-400F-8C96-926132634920}"/>
+    <hyperlink ref="W14" r:id="rId51" xr:uid="{53DA9909-8005-4DEC-B3E3-3856E6C0C4D5}"/>
+    <hyperlink ref="X14" r:id="rId52" xr:uid="{B164D594-9384-4567-AE78-24C9C50F7D6A}"/>
+    <hyperlink ref="W17" r:id="rId53" xr:uid="{E0C3211C-8F27-4397-85ED-5AEFA9514D29}"/>
+    <hyperlink ref="X17" r:id="rId54" xr:uid="{737B3E59-B105-4D59-A7DC-E706EB2535AA}"/>
+    <hyperlink ref="W19" r:id="rId55" xr:uid="{C8CFA30B-C00C-4656-88FA-AADB444B0C95}"/>
+    <hyperlink ref="X19" r:id="rId56" xr:uid="{7A801BAC-167C-4404-AA19-9EA07E37D352}"/>
+    <hyperlink ref="W21" r:id="rId57" xr:uid="{4F5F7A5D-FE79-41B0-BF69-417A3178F096}"/>
+    <hyperlink ref="W20" r:id="rId58" xr:uid="{C5E57C63-4082-428D-B670-65AB77BB695A}"/>
+    <hyperlink ref="W18" r:id="rId59" xr:uid="{453DCC48-0CA8-43D2-9630-64E1ED1483FE}"/>
+    <hyperlink ref="W13" r:id="rId60" xr:uid="{DDDF6C5D-9922-44E6-84D1-5B9D549AB1D1}"/>
+    <hyperlink ref="W27" r:id="rId61" xr:uid="{355BB0C2-B040-41F8-8911-B6AD0EB4313B}"/>
+    <hyperlink ref="Y27" r:id="rId62" xr:uid="{7EE7E259-AECF-436D-8FD7-7B81DA6188A5}"/>
+    <hyperlink ref="W28" r:id="rId63" xr:uid="{3AF51CBA-98BB-4D70-B0BD-67E6C78008B9}"/>
+    <hyperlink ref="Y28" r:id="rId64" xr:uid="{3E2848BC-A665-40C4-A82A-83241EB10BEE}"/>
+    <hyperlink ref="Y29" r:id="rId65" xr:uid="{693E2F29-A51D-40BA-BB2C-17A7CF8433C3}"/>
+    <hyperlink ref="X27" r:id="rId66" xr:uid="{EB1B6F23-127F-4B53-B208-ED318A6D3AA4}"/>
+    <hyperlink ref="X28" r:id="rId67" xr:uid="{410A9D5E-CFC7-4408-BC45-DDBC8162528E}"/>
+    <hyperlink ref="W32" r:id="rId68" xr:uid="{6BC99AF4-7A91-405F-853D-388DA049B4E5}"/>
+    <hyperlink ref="Y32" r:id="rId69" xr:uid="{CDA9E3F4-1859-4109-80E0-28A63E1A4FEA}"/>
+    <hyperlink ref="X32" r:id="rId70" xr:uid="{99640757-2AB6-4897-B0E2-4789482C2E7D}"/>
+    <hyperlink ref="W34" r:id="rId71" xr:uid="{86E1E129-6FE8-4374-BC4C-E846814024CC}"/>
+    <hyperlink ref="Y34" r:id="rId72" xr:uid="{6A5FD7E9-83FB-4BD0-BA87-C3C86DA0E1F8}"/>
+    <hyperlink ref="W35" r:id="rId73" xr:uid="{07D8CFC4-9AD7-4DAC-ACB3-60FBDCCBD268}"/>
+    <hyperlink ref="Y35" r:id="rId74" xr:uid="{1C334DAC-3C3A-4C81-83B2-2F0899C7CA49}"/>
+    <hyperlink ref="W37" r:id="rId75" xr:uid="{B5AD52CB-1007-4466-A744-D22BB073A1BB}"/>
+    <hyperlink ref="Y37" r:id="rId76" xr:uid="{5EBAB60A-B44E-4676-A241-5605FB706561}"/>
+    <hyperlink ref="W38" r:id="rId77" xr:uid="{109DEB9B-78BB-4187-8746-E626E8402AED}"/>
+    <hyperlink ref="Y38" r:id="rId78" xr:uid="{A0B21EDA-B88D-47F9-AD85-018BED6BF8D7}"/>
+    <hyperlink ref="X34" r:id="rId79" xr:uid="{DDD28913-D523-469A-B781-8A946A928180}"/>
+    <hyperlink ref="X35" r:id="rId80" xr:uid="{05D8B5F8-32AB-44AA-BE09-25B90964B3E5}"/>
+    <hyperlink ref="X37" r:id="rId81" xr:uid="{BD56D4E7-59FD-4D79-A5C5-85139DC040AE}"/>
+    <hyperlink ref="X38" r:id="rId82" xr:uid="{465F819A-DF6A-48D6-83BE-9C177EE0239D}"/>
+    <hyperlink ref="W36" r:id="rId83" xr:uid="{1D85F250-B961-4618-BCB4-E6A4E10AEFA6}"/>
+    <hyperlink ref="Y36" r:id="rId84" xr:uid="{6F3E0225-2825-456E-9590-12E0439E78F3}"/>
+    <hyperlink ref="X36" r:id="rId85" xr:uid="{963BB20D-7D78-4D7F-96FA-AE5C6E9330AD}"/>
+    <hyperlink ref="W39" r:id="rId86" xr:uid="{0F28E552-7A88-4E4D-B2BB-13B5D1A73B08}"/>
+    <hyperlink ref="Y39" r:id="rId87" xr:uid="{99FB193B-A6B5-40AE-B133-1F155141C9E3}"/>
+    <hyperlink ref="X39" r:id="rId88" xr:uid="{788725BE-E53B-49DE-BB2B-6595456D8830}"/>
+    <hyperlink ref="W40" r:id="rId89" xr:uid="{B35A3D02-28B2-4BF4-B606-1C6025BC1379}"/>
+    <hyperlink ref="Y40" r:id="rId90" xr:uid="{B679CBBA-B441-490B-9EA0-8D35A2D73C2C}"/>
+    <hyperlink ref="X40" r:id="rId91" xr:uid="{601A15AA-6AAD-492D-849D-DA7921406A2A}"/>
+    <hyperlink ref="Y43" r:id="rId92" xr:uid="{9EC77484-8502-42BB-8545-04DD1AE9764B}"/>
+    <hyperlink ref="Y44" r:id="rId93" xr:uid="{58303CC2-3F78-4EC1-8343-CEBADA82DDDA}"/>
+    <hyperlink ref="W43" r:id="rId94" xr:uid="{E0E94DD2-FFF5-4D0F-AD22-9235BD78DB84}"/>
+    <hyperlink ref="X43" r:id="rId95" xr:uid="{74A13CFA-15F8-40F7-A431-E5B5CB2D0C17}"/>
+    <hyperlink ref="X44" r:id="rId96" xr:uid="{AC4DA13E-E474-4648-B5AA-0BC49A42AF3B}"/>
+    <hyperlink ref="W45" r:id="rId97" xr:uid="{8620DE2D-3076-4FEF-9EA9-0CB176F89853}"/>
+    <hyperlink ref="Y45" r:id="rId98" xr:uid="{14526D2C-EBA5-4996-8958-82F4709C96ED}"/>
+    <hyperlink ref="X45" r:id="rId99" xr:uid="{B3FA71F5-9996-4C4F-9A8E-17CB6AC4D077}"/>
+    <hyperlink ref="Y47" r:id="rId100" xr:uid="{20287E23-1129-4EC2-B8CB-F682B7F16345}"/>
+    <hyperlink ref="Y48" r:id="rId101" xr:uid="{DD967604-92E9-4103-8DD7-D784056D5D64}"/>
+    <hyperlink ref="X48" r:id="rId102" xr:uid="{57D6C587-8A4E-4855-8851-9AE9CE40E995}"/>
+    <hyperlink ref="Y50" r:id="rId103" xr:uid="{01741F1D-E8DB-44C1-83AF-59234AC36F26}"/>
+    <hyperlink ref="X49" r:id="rId104" xr:uid="{FA3B4A6F-4854-4B75-804D-DD3433F79FA6}"/>
+    <hyperlink ref="X53" r:id="rId105" xr:uid="{85711FFB-90B3-470A-960F-E4865BAC5A2C}"/>
+    <hyperlink ref="W53" r:id="rId106" xr:uid="{D0FFCCE5-EB40-401E-9A67-E338314D4B40}"/>
+    <hyperlink ref="X55" r:id="rId107" xr:uid="{0C6AF669-56F5-4C50-916C-5F8998933EEC}"/>
+    <hyperlink ref="X54" r:id="rId108" xr:uid="{4F4A9DAB-E81B-4163-8080-871363A650CC}"/>
+    <hyperlink ref="W54" r:id="rId109" xr:uid="{6D903AF8-0D43-49CC-9BFD-0E9CFFCB096C}"/>
+    <hyperlink ref="Y55" r:id="rId110" xr:uid="{009B826C-B88E-4952-80A7-E235407402CF}"/>
+    <hyperlink ref="Y54" r:id="rId111" xr:uid="{171006D6-5906-4720-8BEE-69A6C6DDC229}"/>
+    <hyperlink ref="Y53" r:id="rId112" xr:uid="{548C54BF-1246-4ABB-843F-B387C2D51011}"/>
+    <hyperlink ref="X52" r:id="rId113" xr:uid="{716A0E84-21FC-403E-BCFF-AA8532B8F48A}"/>
+    <hyperlink ref="W52" r:id="rId114" xr:uid="{6236C622-8702-4BBD-BA13-842DC7B3CB87}"/>
+    <hyperlink ref="X51" r:id="rId115" xr:uid="{AFBBBEA3-14DA-4C78-98DF-9CC11C27FF53}"/>
+    <hyperlink ref="W51" r:id="rId116" xr:uid="{492A6247-704A-4C96-82D0-346B3F8C0AC4}"/>
+    <hyperlink ref="Y52" r:id="rId117" xr:uid="{AFFDDB73-1807-45B1-B55C-C40759E64289}"/>
+    <hyperlink ref="Y51" r:id="rId118" xr:uid="{B2915752-F012-4465-9B35-B9816936A289}"/>
+    <hyperlink ref="X46" r:id="rId119" xr:uid="{F0FEB333-FDD5-478D-A01B-F98EE14C9B06}"/>
+    <hyperlink ref="W46" r:id="rId120" xr:uid="{4DC34DDE-E7A3-43BE-BF68-8DC272BA6DDE}"/>
+    <hyperlink ref="Y46" r:id="rId121" xr:uid="{7D103E0F-7122-434E-880F-96D19D1BC36A}"/>
+    <hyperlink ref="X41" r:id="rId122" xr:uid="{21325F38-1838-45BF-AD39-D11B978BCB43}"/>
+    <hyperlink ref="X56" r:id="rId123" xr:uid="{BEF4293D-F749-4477-BE02-0BE23D9C50CE}"/>
+    <hyperlink ref="W56" r:id="rId124" xr:uid="{E1039C06-8C9A-44B3-98FE-6E30164BF001}"/>
+    <hyperlink ref="Y42" r:id="rId125" xr:uid="{FDF1AA44-7E0B-49E8-A32A-F426A487E1E7}"/>
+    <hyperlink ref="Y41" r:id="rId126" xr:uid="{F9A652B7-8547-480D-ACB6-AD405D220BCC}"/>
+    <hyperlink ref="W41" r:id="rId127" xr:uid="{484CA802-687F-47EA-9701-C81688EBB433}"/>
+    <hyperlink ref="X33" r:id="rId128" xr:uid="{57882445-9AE2-4044-9131-948BE6B51E74}"/>
+    <hyperlink ref="W33" r:id="rId129" xr:uid="{292FB61F-4C9D-49D6-88CD-83EC92A8FB07}"/>
+    <hyperlink ref="Y33" r:id="rId130" xr:uid="{4CF61A98-87C9-45A8-A99F-DCE54F94B436}"/>
+    <hyperlink ref="X31" r:id="rId131" xr:uid="{B6D0DCE1-17A2-4EDB-90D9-8B26E57B858B}"/>
+    <hyperlink ref="W31" r:id="rId132" xr:uid="{87CACF50-95CD-499D-B466-9E8B7B66D0CD}"/>
+    <hyperlink ref="Y31" r:id="rId133" xr:uid="{6CE3CA8A-823D-4565-BA54-A60FF2B01702}"/>
+    <hyperlink ref="X30" r:id="rId134" xr:uid="{307EA71E-4753-4C15-A7FB-663A9949A9FC}"/>
+    <hyperlink ref="Y30" r:id="rId135" xr:uid="{8132FD3A-20BD-457D-AE79-B11580B2BD8B}"/>
+    <hyperlink ref="W30" r:id="rId136" xr:uid="{8A1172E8-B445-44AC-8E4B-0A8E78B47B27}"/>
+    <hyperlink ref="Y49" r:id="rId137" xr:uid="{BC0D3DB3-451C-4E3B-AAAB-A1C2DC32D71D}"/>
+    <hyperlink ref="X42" r:id="rId138" xr:uid="{04CD4D72-0BB3-4E45-83DC-D630E58262DC}"/>
+    <hyperlink ref="X57" r:id="rId139" xr:uid="{FEF64B3B-E40E-4F9E-89CC-166CBDA02318}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId140"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;9&amp;K000000Information Classification: GENERAL</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId141"/>
 </worksheet>
 </file>